--- a/graphs_2.xlsx
+++ b/graphs_2.xlsx
@@ -149,7 +149,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.736138055206867E-2"/>
+          <c:x val="4.7361390387060803E-2"/>
           <c:y val="1.8894116563602924E-2"/>
           <c:w val="0.91302509287788303"/>
           <c:h val="0.91850434330383623"/>
@@ -162,15 +162,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ty_lin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>"время работы линейной функции в зависимости от n"</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
@@ -738,10 +730,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.84782446645243326"/>
-          <c:y val="2.1558605483912033E-2"/>
-          <c:w val="0.1048133601438245"/>
-          <c:h val="6.2204724409448818E-2"/>
+          <c:x val="0.72650386183827265"/>
+          <c:y val="0.22107700933668117"/>
+          <c:w val="0.22414510238726126"/>
+          <c:h val="0.15852395385561324"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -802,15 +794,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ty_kv sqrt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>"зависимость корня из времени работы долгой функции от n"</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
@@ -1371,10 +1355,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.81999774937553116"/>
-          <c:y val="1.4678660523471717E-2"/>
-          <c:w val="0.14125442200159763"/>
-          <c:h val="6.2204724409448818E-2"/>
+          <c:x val="0.71734074454461305"/>
+          <c:y val="0.31051629382240525"/>
+          <c:w val="0.24189854438485045"/>
+          <c:h val="0.18604373369737451"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1469,15 +1453,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="points_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="points_ty_kv" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="points_ty_lin" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="points_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1746,7 +1730,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/graphs_2.xlsx
+++ b/graphs_2.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>n</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>ty_kv sqrt</t>
+  </si>
+  <si>
+    <t>ty_kv/1000</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>"время работы линейной функции в зависимости от n"</c:v>
+            <c:v>"время работы линейной функции в зависимости от n в микросекундах"</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
@@ -490,6 +493,341 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6357-4676-9FFE-E0808CA004B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>"Время работы функции перебора в зависимости от n в миллисекундах"</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.896000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.044</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.934999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.062000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.550999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34.755000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.304000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.052999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53.093000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58.14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63.561999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69.221000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75.155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>81.343999999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>88.897000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>93.915999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100.508</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>110.46</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>119.804</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>126.11799999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>130.71700000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>138.673</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>147.29599999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>155.476</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>163.85499999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>171.602</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>179.929</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>189.94399999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200.65</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>210.97300000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>220.06800000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>229.15199999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>240.51599999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>249.857</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>259.74299999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>271.70499999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>285.31700000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>295.416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D3B-4EF7-A225-6F131B3CCC0F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -652,16 +990,9 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>t,</a:t>
+                  <a:t>t</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t>микросек</a:t>
-                </a:r>
+                <a:endParaRPr lang="ru-RU" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -730,10 +1061,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.72650386183827265"/>
-          <c:y val="0.22107700933668117"/>
-          <c:w val="0.22414510238726126"/>
-          <c:h val="0.15852395385561324"/>
+          <c:x val="0.19945533359642695"/>
+          <c:y val="3.531849540479267E-2"/>
+          <c:w val="0.31966984884645983"/>
+          <c:h val="0.29066900693140912"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1453,15 +1784,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="points_ty_lin" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="points_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="points_ty_kv" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="points_ty_lin" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1727,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1739,10 +2070,10 @@
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1755,8 +2086,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -1770,8 +2104,12 @@
         <f>SQRT(C2)</f>
         <v>10.816653826391969</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <f>C2/1000</f>
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000</v>
       </c>
@@ -1785,8 +2123,12 @@
         <f t="shared" ref="D3:D51" si="0">SQRT(C3)</f>
         <v>21.725560982400431</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f t="shared" ref="E3:E51" si="1">C3/1000</f>
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30000</v>
       </c>
@@ -1800,8 +2142,12 @@
         <f t="shared" si="0"/>
         <v>32.526911934581186</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.0580000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>40000</v>
       </c>
@@ -1815,8 +2161,12 @@
         <f t="shared" si="0"/>
         <v>43.81780460041329</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>50000</v>
       </c>
@@ -1830,8 +2180,12 @@
         <f t="shared" si="0"/>
         <v>54.442630355264797</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2.964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>60000</v>
       </c>
@@ -1845,8 +2199,12 @@
         <f t="shared" si="0"/>
         <v>65.069193939989759</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>4.234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>70000</v>
       </c>
@@ -1860,8 +2218,12 @@
         <f t="shared" si="0"/>
         <v>76.177424477334498</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>5.8029999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>80000</v>
       </c>
@@ -1875,8 +2237,12 @@
         <f t="shared" si="0"/>
         <v>87.72114910328068</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>7.6950000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>90000</v>
       </c>
@@ -1890,8 +2256,12 @@
         <f t="shared" si="0"/>
         <v>98.015304927342854</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>9.6069999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100000</v>
       </c>
@@ -1905,8 +2275,12 @@
         <f t="shared" si="0"/>
         <v>109.06878563548784</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>11.896000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>110000</v>
       </c>
@@ -1920,8 +2294,12 @@
         <f t="shared" si="0"/>
         <v>119.91663771137014</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>14.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>120000</v>
       </c>
@@ -1935,8 +2313,12 @@
         <f t="shared" si="0"/>
         <v>130.55267136294071</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>17.044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>130000</v>
       </c>
@@ -1950,8 +2332,12 @@
         <f t="shared" si="0"/>
         <v>141.1913595090011</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>19.934999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>140000</v>
       </c>
@@ -1965,8 +2351,12 @@
         <f t="shared" si="0"/>
         <v>151.8617792599573</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>23.062000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>150000</v>
       </c>
@@ -1980,8 +2370,12 @@
         <f t="shared" si="0"/>
         <v>162.94477592116908</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>26.550999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>160000</v>
       </c>
@@ -1995,8 +2389,12 @@
         <f t="shared" si="0"/>
         <v>175.49928774784243</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>170000</v>
       </c>
@@ -2010,8 +2408,12 @@
         <f t="shared" si="0"/>
         <v>186.42692938521517</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>34.755000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>180000</v>
       </c>
@@ -2025,8 +2427,12 @@
         <f t="shared" si="0"/>
         <v>197.82820830205182</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>39.136000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>190000</v>
       </c>
@@ -2040,8 +2446,12 @@
         <f t="shared" si="0"/>
         <v>208.09613163151303</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>43.304000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>200000</v>
       </c>
@@ -2055,8 +2465,12 @@
         <f t="shared" si="0"/>
         <v>219.20994502987313</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>48.052999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>210000</v>
       </c>
@@ -2070,8 +2484,12 @@
         <f t="shared" si="0"/>
         <v>230.41918322917473</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>53.093000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>220000</v>
       </c>
@@ -2085,8 +2503,12 @@
         <f t="shared" si="0"/>
         <v>241.12237556892143</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>58.14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>230000</v>
       </c>
@@ -2100,8 +2522,12 @@
         <f t="shared" si="0"/>
         <v>252.11505310076191</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>63.561999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>240000</v>
       </c>
@@ -2115,8 +2541,12 @@
         <f t="shared" si="0"/>
         <v>263.09884074240995</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>69.221000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>250000</v>
       </c>
@@ -2130,8 +2560,12 @@
         <f t="shared" si="0"/>
         <v>274.14412268002388</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>75.155000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>260000</v>
       </c>
@@ -2145,8 +2579,12 @@
         <f t="shared" si="0"/>
         <v>285.2086955196142</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>81.343999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>270000</v>
       </c>
@@ -2160,8 +2598,12 @@
         <f t="shared" si="0"/>
         <v>298.1559994365366</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>88.897000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>280000</v>
       </c>
@@ -2175,8 +2617,12 @@
         <f t="shared" si="0"/>
         <v>306.45717482219271</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>93.915999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>290000</v>
       </c>
@@ -2190,8 +2636,12 @@
         <f t="shared" si="0"/>
         <v>317.02996703781804</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>100.508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>300000</v>
       </c>
@@ -2205,8 +2655,12 @@
         <f t="shared" si="0"/>
         <v>332.35523164228965</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>110.46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>310000</v>
       </c>
@@ -2220,8 +2674,12 @@
         <f t="shared" si="0"/>
         <v>346.12714426926993</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>119.804</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>320000</v>
       </c>
@@ -2235,8 +2693,12 @@
         <f t="shared" si="0"/>
         <v>355.13096175917974</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>126.11799999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>330000</v>
       </c>
@@ -2250,8 +2712,12 @@
         <f t="shared" si="0"/>
         <v>361.54806042903897</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>130.71700000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>340000</v>
       </c>
@@ -2265,8 +2731,12 @@
         <f t="shared" si="0"/>
         <v>372.38823826753713</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>138.673</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>350000</v>
       </c>
@@ -2280,8 +2750,12 @@
         <f t="shared" si="0"/>
         <v>383.79161012195146</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>147.29599999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>360000</v>
       </c>
@@ -2295,8 +2769,12 @@
         <f t="shared" si="0"/>
         <v>394.30445090056998</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>155.476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>370000</v>
       </c>
@@ -2310,8 +2788,12 @@
         <f t="shared" si="0"/>
         <v>404.79006904814253</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>163.85499999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>380000</v>
       </c>
@@ -2325,8 +2807,12 @@
         <f t="shared" si="0"/>
         <v>414.24871755987368</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>171.602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>390000</v>
       </c>
@@ -2340,8 +2826,12 @@
         <f t="shared" si="0"/>
         <v>424.18038615664443</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>179.929</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>400000</v>
       </c>
@@ -2355,8 +2845,12 @@
         <f t="shared" si="0"/>
         <v>435.82565321467712</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>189.94399999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>410000</v>
       </c>
@@ -2370,8 +2864,12 @@
         <f>SQRT(C42)</f>
         <v>447.93972808850077</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <f>C42/1000</f>
+        <v>200.65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>420000</v>
       </c>
@@ -2385,8 +2883,12 @@
         <f t="shared" si="0"/>
         <v>459.31797265075528</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>210.97300000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>430000</v>
       </c>
@@ -2400,8 +2902,12 @@
         <f t="shared" si="0"/>
         <v>469.11405862540511</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>220.06800000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>440000</v>
       </c>
@@ -2415,8 +2921,12 @@
         <f t="shared" si="0"/>
         <v>478.69823479933575</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>229.15199999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>450000</v>
       </c>
@@ -2430,8 +2940,12 @@
         <f t="shared" si="0"/>
         <v>490.42430608606668</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>240.51599999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>460000</v>
       </c>
@@ -2445,8 +2959,12 @@
         <f t="shared" si="0"/>
         <v>499.8569795451495</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>249.857</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>470000</v>
       </c>
@@ -2460,8 +2978,12 @@
         <f t="shared" si="0"/>
         <v>509.64987981946979</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>259.74299999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>480000</v>
       </c>
@@ -2475,8 +2997,12 @@
         <f t="shared" si="0"/>
         <v>521.253297351681</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>271.70499999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>490000</v>
       </c>
@@ -2490,8 +3016,12 @@
         <f t="shared" si="0"/>
         <v>534.15072779132299</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>285.31700000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>500000</v>
       </c>
@@ -2504,6 +3034,10 @@
       <c r="D51">
         <f t="shared" si="0"/>
         <v>543.52184868687664</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>295.416</v>
       </c>
     </row>
   </sheetData>
